--- a/PCB/DE10-lite_shield/DE10-lite_shield_bom.xlsx
+++ b/PCB/DE10-lite_shield/DE10-lite_shield_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Uni\Year_2\Design_Project_2\EEEBalanceBug\PCB\DE10-lite_shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C931998B-070B-4B7F-B8F9-BDDC40E74C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E11F5CB-8247-4A94-B73D-89339B409323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{B4AE7691-1ECF-41CD-A3D4-186728AF4D5B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{B4AE7691-1ECF-41CD-A3D4-186728AF4D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>CP2102N-A02-GQFN28</t>
   </si>
@@ -181,6 +181,39 @@
   </si>
   <si>
     <t>Fuse</t>
+  </si>
+  <si>
+    <t>https://onecall.farnell.com/panasonic/erj2rkf1243x/res-124k-1-0-1w-0402-thick-film/dp/2302848</t>
+  </si>
+  <si>
+    <t>ERJ2RKF1243X</t>
+  </si>
+  <si>
+    <t>124k ohm</t>
+  </si>
+  <si>
+    <t>RC0402FR-0722K1L</t>
+  </si>
+  <si>
+    <t>https://onecall.farnell.com/yageo/rc0402fr-0722k1l/res-22k1-1-0-0625w-0402-thick/dp/3495559</t>
+  </si>
+  <si>
+    <t>RC0402FR-0773K2L</t>
+  </si>
+  <si>
+    <t>73.2k ohm</t>
+  </si>
+  <si>
+    <t>22.1k ohm</t>
+  </si>
+  <si>
+    <t>https://onecall.farnell.com/yageo/rc0402fr-0773k2l/res-73k2-1-0-0625w-0402-thick/dp/3495667</t>
+  </si>
+  <si>
+    <t>Bought?</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -544,18 +577,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C5D5D-D707-4CFE-9152-56CA0DCBC691}">
-  <dimension ref="B2:G16"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -566,13 +599,16 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -585,14 +621,17 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -604,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -617,14 +656,17 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -637,14 +679,17 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -657,14 +702,17 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -677,14 +725,17 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -697,14 +748,17 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -717,14 +771,17 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -737,14 +794,17 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>31.8201</v>
       </c>
@@ -757,40 +817,102 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" cm="1">
-        <f t="array" ref="E16">SUM(D3:D15*E3:E15)</f>
-        <v>16.972999999999999</v>
-      </c>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E17" s="2" cm="1">
+        <f t="array" ref="E17">SUM(D3:D16*E3:E16)</f>
+        <v>17.898</v>
+      </c>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{BDDD91DE-D20F-4604-894D-0836862226F2}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{CA54AF4C-1A33-440C-8733-452EE103BAED}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{6B342492-0DFA-40EA-99D8-EF9C7C4E12BE}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{ACE8EA33-E8BD-4A21-A4AA-BB702AE8CCE4}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{326BFDEF-B9A6-4499-802B-0D7AE154A81D}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{393D451B-300F-4151-ACA1-8C8379762318}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{B6470EC0-2190-4555-914A-AF71E8CDA5E2}"/>
-    <hyperlink ref="G7" r:id="rId8" xr:uid="{7A16B687-CB99-496A-90A4-911018E6B9A2}"/>
-    <hyperlink ref="G8" r:id="rId9" xr:uid="{05D2B7FB-DD5F-4A16-A7D5-C6BCB8D3D049}"/>
-    <hyperlink ref="F8" r:id="rId10" xr:uid="{510544B2-6BAF-448F-A156-2EA44182F715}"/>
-    <hyperlink ref="G9" r:id="rId11" xr:uid="{8D6DF6B7-8925-442E-8C62-A92A8FEC5213}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{02B79B8A-C834-4FE0-83F5-08C5455421AB}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{DD667489-29B3-4B3F-8181-0724CF1F0E81}"/>
-    <hyperlink ref="G11" r:id="rId14" xr:uid="{CA5EFFC8-7D37-4B25-BBE9-95D9F76B5223}"/>
-    <hyperlink ref="F11" r:id="rId15" xr:uid="{4044C858-E953-4A18-AD2B-8B7E5EAEFF07}"/>
-    <hyperlink ref="F12" r:id="rId16" xr:uid="{BB7258A7-2F01-4257-9546-B27B9C579750}"/>
-    <hyperlink ref="G12" r:id="rId17" xr:uid="{B2CFCA82-FE87-499D-8C1A-691B97BB0CFA}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{BDDD91DE-D20F-4604-894D-0836862226F2}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{CA54AF4C-1A33-440C-8733-452EE103BAED}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{6B342492-0DFA-40EA-99D8-EF9C7C4E12BE}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{ACE8EA33-E8BD-4A21-A4AA-BB702AE8CCE4}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{326BFDEF-B9A6-4499-802B-0D7AE154A81D}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{393D451B-300F-4151-ACA1-8C8379762318}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{B6470EC0-2190-4555-914A-AF71E8CDA5E2}"/>
+    <hyperlink ref="H7" r:id="rId8" xr:uid="{7A16B687-CB99-496A-90A4-911018E6B9A2}"/>
+    <hyperlink ref="H8" r:id="rId9" xr:uid="{05D2B7FB-DD5F-4A16-A7D5-C6BCB8D3D049}"/>
+    <hyperlink ref="G8" r:id="rId10" xr:uid="{510544B2-6BAF-448F-A156-2EA44182F715}"/>
+    <hyperlink ref="H9" r:id="rId11" xr:uid="{8D6DF6B7-8925-442E-8C62-A92A8FEC5213}"/>
+    <hyperlink ref="G9" r:id="rId12" xr:uid="{02B79B8A-C834-4FE0-83F5-08C5455421AB}"/>
+    <hyperlink ref="G10" r:id="rId13" xr:uid="{DD667489-29B3-4B3F-8181-0724CF1F0E81}"/>
+    <hyperlink ref="H11" r:id="rId14" xr:uid="{CA5EFFC8-7D37-4B25-BBE9-95D9F76B5223}"/>
+    <hyperlink ref="G11" r:id="rId15" xr:uid="{4044C858-E953-4A18-AD2B-8B7E5EAEFF07}"/>
+    <hyperlink ref="G12" r:id="rId16" xr:uid="{BB7258A7-2F01-4257-9546-B27B9C579750}"/>
+    <hyperlink ref="H12" r:id="rId17" xr:uid="{B2CFCA82-FE87-499D-8C1A-691B97BB0CFA}"/>
+    <hyperlink ref="H13" r:id="rId18" xr:uid="{A8A9AA07-8E95-4ADF-B0BE-2E5729E167BE}"/>
+    <hyperlink ref="H14" r:id="rId19" xr:uid="{08F36F6B-26DC-41F5-892B-E0E88CFB3C19}"/>
+    <hyperlink ref="H15" r:id="rId20" xr:uid="{77941B28-F116-4CE8-A884-F00589448E6B}"/>
+    <hyperlink ref="H10" r:id="rId21" xr:uid="{7FEDF88D-60B7-4AE4-B975-5B49C6AE8DFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/PCB/DE10-lite_shield/DE10-lite_shield_bom.xlsx
+++ b/PCB/DE10-lite_shield/DE10-lite_shield_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Uni\Year_2\Design_Project_2\EEEBalanceBug\PCB\DE10-lite_shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E11F5CB-8247-4A94-B73D-89339B409323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A7E75-ED03-4A57-8E3E-3632FCBE1CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{B4AE7691-1ECF-41CD-A3D4-186728AF4D5B}"/>
+    <workbookView xWindow="13560" yWindow="3840" windowWidth="21585" windowHeight="15240" xr2:uid="{B4AE7691-1ECF-41CD-A3D4-186728AF4D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>CP2102N-A02-GQFN28</t>
   </si>
@@ -580,15 +580,15 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -608,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -631,19 +631,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -666,7 +671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -689,7 +694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -712,7 +717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -735,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -758,7 +763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -781,7 +786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -804,7 +809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>31.8201</v>
       </c>
@@ -827,7 +832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -847,7 +852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -860,11 +865,14 @@
       <c r="E14">
         <v>100</v>
       </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -877,14 +885,17 @@
       <c r="E15">
         <v>10</v>
       </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="2" cm="1">
         <f t="array" ref="E17">SUM(D3:D16*E3:E16)</f>
-        <v>17.898</v>
+        <v>24.898</v>
       </c>
       <c r="F17" s="2"/>
     </row>

--- a/PCB/DE10-lite_shield/DE10-lite_shield_bom.xlsx
+++ b/PCB/DE10-lite_shield/DE10-lite_shield_bom.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Uni\Year_2\Design_Project_2\EEEBalanceBug\PCB\DE10-lite_shield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanjang/Documents/Year2proj/EEEBalanceBug/PCB/DE10-lite_shield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A7E75-ED03-4A57-8E3E-3632FCBE1CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28B1DF3-0C4A-DC42-AE47-3B1DBEF3BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="3840" windowWidth="21585" windowHeight="15240" xr2:uid="{B4AE7691-1ECF-41CD-A3D4-186728AF4D5B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{B4AE7691-1ECF-41CD-A3D4-186728AF4D5B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Buying" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>CP2102N-A02-GQFN28</t>
   </si>
@@ -214,6 +215,15 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -579,16 +589,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C5D5D-D707-4CFE-9152-56CA0DCBC691}">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -608,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -631,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -648,7 +658,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -671,7 +681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -694,7 +704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -717,7 +727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -740,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -763,7 +773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -786,7 +796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -809,7 +819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>31.8201</v>
       </c>
@@ -832,7 +842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -852,7 +862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -872,7 +882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -892,7 +902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17" s="2" cm="1">
         <f t="array" ref="E17">SUM(D3:D16*E3:E16)</f>
         <v>24.898</v>
@@ -926,4 +936,220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE181280-CEE2-0E44-B7D7-1F7D795729B3}">
+  <dimension ref="B2:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>31.8201</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PCB/DE10-lite_shield/DE10-lite_shield_bom.xlsx
+++ b/PCB/DE10-lite_shield/DE10-lite_shield_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanjang/Documents/Year2proj/EEEBalanceBug/PCB/DE10-lite_shield/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Uni\Year_2\Design_Project_2\EEEBalanceBug\PCB\DE10-lite_shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28B1DF3-0C4A-DC42-AE47-3B1DBEF3BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B8C09A-1344-41CB-979D-4490A0C697FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{B4AE7691-1ECF-41CD-A3D4-186728AF4D5B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{B4AE7691-1ECF-41CD-A3D4-186728AF4D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Buying" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>CP2102N-A02-GQFN28</t>
   </si>
@@ -223,14 +223,125 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>s</t>
+    <t>124kΩ</t>
+  </si>
+  <si>
+    <t>22.1kΩ</t>
+  </si>
+  <si>
+    <t>73.2kΩ</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>4.7kΩ</t>
+  </si>
+  <si>
+    <t>2.2kΩ</t>
+  </si>
+  <si>
+    <t>1.5kΩ</t>
+  </si>
+  <si>
+    <t>33kΩ</t>
+  </si>
+  <si>
+    <t>3.3kΩ</t>
+  </si>
+  <si>
+    <t>Dual buck SMPS</t>
+  </si>
+  <si>
+    <t>I2C Multiplexer</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>1V8 LDO Regulator</t>
+  </si>
+  <si>
+    <t>USB to UART bridge</t>
+  </si>
+  <si>
+    <t>LED Red</t>
+  </si>
+  <si>
+    <t>LED Blue</t>
+  </si>
+  <si>
+    <t>TXS0108EPW</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Level shifter</t>
+  </si>
+  <si>
+    <t>TPD4S012</t>
+  </si>
+  <si>
+    <t>USB ESD Protection</t>
+  </si>
+  <si>
+    <t>Pin Headers</t>
+  </si>
+  <si>
+    <t>Pin Sockets</t>
+  </si>
+  <si>
+    <t>Molex Connectors</t>
+  </si>
+  <si>
+    <t>JST SH</t>
+  </si>
+  <si>
+    <t>I2C Connector</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Toggle Switch</t>
+  </si>
+  <si>
+    <t>Screw Terminal</t>
+  </si>
+  <si>
+    <t>USB-C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +353,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,10 +387,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,15 +715,15 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -618,7 +743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -641,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -658,7 +783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -681,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -704,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -727,7 +852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -750,7 +875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -773,7 +898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -796,7 +921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -819,7 +944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>31.8201</v>
       </c>
@@ -842,7 +967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -862,7 +987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -882,7 +1007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -902,7 +1027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E17" s="2" cm="1">
         <f t="array" ref="E17">SUM(D3:D16*E3:E16)</f>
         <v>24.898</v>
@@ -940,216 +1065,521 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE181280-CEE2-0E44-B7D7-1F7D795729B3}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="19.61328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.4609375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>31.8201</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.68</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E38" t="s">
         <v>31</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E39" t="s">
         <v>36</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>31.8201</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.26E-2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>54</v>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D42" s="2" cm="1">
+        <f t="array" ref="D42">SUM(C4:C41*D4:D41)</f>
+        <v>22.067899999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>